--- a/Code/Data/DAX30/Compared Returns/Auto Recurrence/input 250/DAX30_returns_compared_trimester.xlsx
+++ b/Code/Data/DAX30/Compared Returns/Auto Recurrence/input 250/DAX30_returns_compared_trimester.xlsx
@@ -501,13 +501,13 @@
         <v>0.04690428506837689</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03437488331534093</v>
+        <v>0.044507139894648</v>
       </c>
       <c r="H2" t="n">
-        <v>-26.71270169616837</v>
+        <v>-5.110716793219083</v>
       </c>
       <c r="I2" t="n">
-        <v>-7.284062824813925</v>
+        <v>-21.34439183544576</v>
       </c>
     </row>
     <row r="3">
@@ -536,10 +536,10 @@
         <v>0.07240634976255141</v>
       </c>
       <c r="G3" t="n">
-        <v>0.06764438070671465</v>
+        <v>0.06740262747370918</v>
       </c>
       <c r="H3" t="n">
-        <v>-6.576728520983457</v>
+        <v>-6.910612543307848</v>
       </c>
       <c r="I3" t="inlineStr"/>
     </row>
@@ -569,10 +569,10 @@
         <v>0.05677872930236846</v>
       </c>
       <c r="G4" t="n">
-        <v>0.007779375229457691</v>
+        <v>0.0759057365161708</v>
       </c>
       <c r="H4" t="n">
-        <v>-86.29878596255732</v>
+        <v>33.6869236927507</v>
       </c>
       <c r="I4" t="inlineStr"/>
     </row>
@@ -602,10 +602,10 @@
         <v>0.01431410888443309</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.01803228388419256</v>
+        <v>-0.002989573165701689</v>
       </c>
       <c r="H5" t="n">
-        <v>-225.9755953358932</v>
+        <v>-120.8854996831337</v>
       </c>
       <c r="I5" t="inlineStr"/>
     </row>
@@ -635,10 +635,10 @@
         <v>-0.02406522563137596</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.005533192763912663</v>
+        <v>-0.02006153895792808</v>
       </c>
       <c r="H6" t="n">
-        <v>-77.00751761621321</v>
+        <v>16.63681336204852</v>
       </c>
       <c r="I6" t="inlineStr"/>
     </row>
@@ -668,10 +668,10 @@
         <v>-0.03313782199633989</v>
       </c>
       <c r="G7" t="n">
-        <v>0.004702935408521146</v>
+        <v>0.001144632933237164</v>
       </c>
       <c r="H7" t="n">
-        <v>-114.1920474104804</v>
+        <v>103.4541586147804</v>
       </c>
       <c r="I7" t="inlineStr"/>
     </row>
@@ -701,10 +701,10 @@
         <v>0.03132415382667915</v>
       </c>
       <c r="G8" t="n">
-        <v>0.00198254012291202</v>
+        <v>0.009941010745034741</v>
       </c>
       <c r="H8" t="n">
-        <v>-93.67089009369036</v>
+        <v>-68.26407251081794</v>
       </c>
       <c r="I8" t="inlineStr"/>
     </row>
@@ -734,10 +734,10 @@
         <v>0.01634254468973803</v>
       </c>
       <c r="G9" t="n">
-        <v>0.003323818267421719</v>
+        <v>0.00928759139129029</v>
       </c>
       <c r="H9" t="n">
-        <v>-79.66156231771639</v>
+        <v>-43.1692458695111</v>
       </c>
       <c r="I9" t="inlineStr"/>
     </row>
@@ -767,10 +767,10 @@
         <v>-0.1585987240758367</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.1525885341854637</v>
+        <v>-0.1410068436955496</v>
       </c>
       <c r="H10" t="n">
-        <v>-3.789557529793948</v>
+        <v>11.09206929803245</v>
       </c>
       <c r="I10" t="inlineStr"/>
     </row>
@@ -800,10 +800,10 @@
         <v>-0.1624399880904878</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.1468166154108886</v>
+        <v>-0.1537893537902405</v>
       </c>
       <c r="H11" t="n">
-        <v>-9.617935129923872</v>
+        <v>5.325433966067777</v>
       </c>
       <c r="I11" t="inlineStr"/>
     </row>
@@ -833,10 +833,10 @@
         <v>-0.06057036026101323</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.08747120167677405</v>
+        <v>-0.07528304868605809</v>
       </c>
       <c r="H12" t="n">
-        <v>44.41254980131898</v>
+        <v>-24.29024420796593</v>
       </c>
       <c r="I12" t="inlineStr"/>
     </row>
@@ -866,10 +866,10 @@
         <v>-0.09595844735096801</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.07892896630670684</v>
+        <v>-0.08535435189071953</v>
       </c>
       <c r="H13" t="n">
-        <v>-17.74672424823198</v>
+        <v>11.05071596402972</v>
       </c>
       <c r="I13" t="inlineStr"/>
     </row>
@@ -899,10 +899,10 @@
         <v>-0.0880758363513635</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.07708725739464777</v>
+        <v>-0.0644539166906721</v>
       </c>
       <c r="H14" t="n">
-        <v>-12.47626978287061</v>
+        <v>26.81997769110677</v>
       </c>
       <c r="I14" t="inlineStr"/>
     </row>
@@ -932,10 +932,10 @@
         <v>-0.09854107075769501</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.08652510974122515</v>
+        <v>-0.09035561894098119</v>
       </c>
       <c r="H15" t="n">
-        <v>-12.19386081770533</v>
+        <v>8.306639814013408</v>
       </c>
       <c r="I15" t="inlineStr"/>
     </row>
@@ -965,10 +965,10 @@
         <v>-0.3086795035919008</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.2489521119249083</v>
+        <v>-0.2188400508856841</v>
       </c>
       <c r="H16" t="n">
-        <v>-19.34932218433165</v>
+        <v>29.10444381982411</v>
       </c>
       <c r="I16" t="inlineStr"/>
     </row>
@@ -998,10 +998,10 @@
         <v>-0.3125468234095096</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.2935328960671374</v>
+        <v>-0.3192611322084137</v>
       </c>
       <c r="H17" t="n">
-        <v>-6.083545222105657</v>
+        <v>-2.148256931764345</v>
       </c>
       <c r="I17" t="inlineStr"/>
     </row>
@@ -1031,10 +1031,10 @@
         <v>-0.1425913561743559</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.1802349698429049</v>
+        <v>-0.174828451333421</v>
       </c>
       <c r="H18" t="n">
-        <v>26.39964628888141</v>
+        <v>-22.60802900257621</v>
       </c>
       <c r="I18" t="inlineStr"/>
     </row>
@@ -1064,10 +1064,10 @@
         <v>-0.1550685811404286</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.1434258944634107</v>
+        <v>-0.2077842871356534</v>
       </c>
       <c r="H19" t="n">
-        <v>-7.508088738152828</v>
+        <v>-33.99509146697226</v>
       </c>
       <c r="I19" t="inlineStr"/>
     </row>
@@ -1097,10 +1097,10 @@
         <v>0.1418115268149177</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1162747516908846</v>
+        <v>0.1223763802075111</v>
       </c>
       <c r="H20" t="n">
-        <v>-18.00754543554269</v>
+        <v>-13.70491316462024</v>
       </c>
       <c r="I20" t="inlineStr"/>
     </row>
@@ -1130,10 +1130,10 @@
         <v>0.1848395652975698</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2795284651592383</v>
+        <v>0.2736411734551222</v>
       </c>
       <c r="H21" t="n">
-        <v>51.22761444998562</v>
+        <v>48.04253246029457</v>
       </c>
       <c r="I21" t="inlineStr"/>
     </row>
@@ -1163,10 +1163,10 @@
         <v>0.1839959105938305</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1282967265096932</v>
+        <v>0.1757402116281885</v>
       </c>
       <c r="H22" t="n">
-        <v>-30.27196849341549</v>
+        <v>-4.486892637449088</v>
       </c>
       <c r="I22" t="inlineStr"/>
     </row>
@@ -1196,10 +1196,10 @@
         <v>0.167097082751942</v>
       </c>
       <c r="G23" t="n">
-        <v>0.22651038259548</v>
+        <v>0.2085069884482651</v>
       </c>
       <c r="H23" t="n">
-        <v>35.55615625662234</v>
+        <v>24.7819441335171</v>
       </c>
       <c r="I23" t="inlineStr"/>
     </row>
@@ -1229,10 +1229,10 @@
         <v>0.06416166522379767</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0820705679118184</v>
+        <v>0.07373908458539202</v>
       </c>
       <c r="H24" t="n">
-        <v>27.91215381576207</v>
+        <v>14.92701183516365</v>
       </c>
       <c r="I24" t="inlineStr"/>
     </row>
@@ -1262,10 +1262,10 @@
         <v>0.03288457073106435</v>
       </c>
       <c r="G25" t="n">
-        <v>0.03619557305705774</v>
+        <v>0.04520451385946138</v>
       </c>
       <c r="H25" t="n">
-        <v>10.06855875684477</v>
+        <v>37.46420541460503</v>
       </c>
       <c r="I25" t="inlineStr"/>
     </row>
@@ -1295,10 +1295,10 @@
         <v>0.05401082814340269</v>
       </c>
       <c r="G26" t="n">
-        <v>0.04077588261601759</v>
+        <v>0.04583185887458358</v>
       </c>
       <c r="H26" t="n">
-        <v>-24.50424476411536</v>
+        <v>-15.14320285388579</v>
       </c>
       <c r="I26" t="inlineStr"/>
     </row>
@@ -1328,10 +1328,10 @@
         <v>0.06433468169381938</v>
       </c>
       <c r="G27" t="n">
-        <v>0.06167134709325159</v>
+        <v>0.05529503639621992</v>
       </c>
       <c r="H27" t="n">
-        <v>-4.139811576659529</v>
+        <v>-14.0509676267939</v>
       </c>
       <c r="I27" t="inlineStr"/>
     </row>
@@ -1361,10 +1361,10 @@
         <v>-0.05928198100296411</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.0572659306391856</v>
+        <v>-0.06932473752436261</v>
       </c>
       <c r="H28" t="n">
-        <v>-3.400781029361535</v>
+        <v>-16.94065608383828</v>
       </c>
       <c r="I28" t="inlineStr"/>
     </row>
@@ -1394,10 +1394,10 @@
         <v>-0.05281150307367723</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.03285217598211722</v>
+        <v>-0.08011536415325114</v>
       </c>
       <c r="H29" t="n">
-        <v>-37.79352211148922</v>
+        <v>-51.7005945494154</v>
       </c>
       <c r="I29" t="inlineStr"/>
     </row>
@@ -1427,10 +1427,10 @@
         <v>0.07699420258580157</v>
       </c>
       <c r="G30" t="n">
-        <v>0.05778729912810708</v>
+        <v>0.07358681644002943</v>
       </c>
       <c r="H30" t="n">
-        <v>-24.94590866928002</v>
+        <v>-4.425510014179296</v>
       </c>
       <c r="I30" t="inlineStr"/>
     </row>
@@ -1460,10 +1460,10 @@
         <v>0.06115431279408023</v>
       </c>
       <c r="G31" t="n">
-        <v>0.09816278559419382</v>
+        <v>0.08678110231978667</v>
       </c>
       <c r="H31" t="n">
-        <v>60.51653777016367</v>
+        <v>41.90512223070411</v>
       </c>
       <c r="I31" t="inlineStr"/>
     </row>
@@ -1493,10 +1493,10 @@
         <v>0.07344886362917534</v>
       </c>
       <c r="G32" t="n">
-        <v>0.08745526574219037</v>
+        <v>0.07296781789929342</v>
       </c>
       <c r="H32" t="n">
-        <v>19.06959675200667</v>
+        <v>-0.6549396493192814</v>
       </c>
       <c r="I32" t="inlineStr"/>
     </row>
@@ -1526,10 +1526,10 @@
         <v>0.1261993152982801</v>
       </c>
       <c r="G33" t="n">
-        <v>0.1307124332538703</v>
+        <v>0.1192516692199377</v>
       </c>
       <c r="H33" t="n">
-        <v>3.576182600454812</v>
+        <v>-5.505296175277339</v>
       </c>
       <c r="I33" t="inlineStr"/>
     </row>
@@ -1559,10 +1559,10 @@
         <v>0.02737189623751556</v>
       </c>
       <c r="G34" t="n">
-        <v>0.04229845890690587</v>
+        <v>0.03350256077265752</v>
       </c>
       <c r="H34" t="n">
-        <v>54.53243918458291</v>
+        <v>22.39766102408117</v>
       </c>
       <c r="I34" t="inlineStr"/>
     </row>
@@ -1592,10 +1592,10 @@
         <v>0.02703077430986488</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02421918654853011</v>
+        <v>0.0256418587219779</v>
       </c>
       <c r="H35" t="n">
-        <v>-10.40143256387843</v>
+        <v>-5.138275256066546</v>
       </c>
       <c r="I35" t="inlineStr"/>
     </row>
@@ -1625,10 +1625,10 @@
         <v>0.03421515439615114</v>
       </c>
       <c r="G36" t="n">
-        <v>0.007907924430798248</v>
+        <v>0.02880982654038093</v>
       </c>
       <c r="H36" t="n">
-        <v>-76.88765527918294</v>
+        <v>-15.79805191929297</v>
       </c>
       <c r="I36" t="inlineStr"/>
     </row>
@@ -1658,10 +1658,10 @@
         <v>0.06941034141498056</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03963117836231719</v>
+        <v>0.04342036929088674</v>
       </c>
       <c r="H37" t="n">
-        <v>-42.90306378789293</v>
+        <v>-37.44394796837076</v>
       </c>
       <c r="I37" t="inlineStr"/>
     </row>
@@ -1691,10 +1691,10 @@
         <v>-0.2402862095039686</v>
       </c>
       <c r="G38" t="n">
-        <v>-0.2512678746377758</v>
+        <v>-0.249975489687869</v>
       </c>
       <c r="H38" t="n">
-        <v>4.570243609267894</v>
+        <v>-4.032391290329289</v>
       </c>
       <c r="I38" t="inlineStr"/>
     </row>
@@ -1724,10 +1724,10 @@
         <v>-0.2687051904527817</v>
       </c>
       <c r="G39" t="n">
-        <v>-0.239147741185767</v>
+        <v>-0.2399446984942939</v>
       </c>
       <c r="H39" t="n">
-        <v>-10.99995471513181</v>
+        <v>10.7033630091123</v>
       </c>
       <c r="I39" t="inlineStr"/>
     </row>
@@ -1757,10 +1757,10 @@
         <v>0.1249543385180605</v>
       </c>
       <c r="G40" t="n">
-        <v>0.1354041517012476</v>
+        <v>0.1431708341938273</v>
       </c>
       <c r="H40" t="n">
-        <v>8.362905447798205</v>
+        <v>14.57852195594942</v>
       </c>
       <c r="I40" t="inlineStr"/>
     </row>
@@ -1790,10 +1790,10 @@
         <v>0.1477318918246991</v>
       </c>
       <c r="G41" t="n">
-        <v>0.1421674506579061</v>
+        <v>0.1263382108767621</v>
       </c>
       <c r="H41" t="n">
-        <v>-3.766580863525291</v>
+        <v>-14.48142353265404</v>
       </c>
       <c r="I41" t="inlineStr"/>
     </row>
@@ -1823,10 +1823,10 @@
         <v>0.1193177533271809</v>
       </c>
       <c r="G42" t="n">
-        <v>0.128714999698139</v>
+        <v>0.1302331409253676</v>
       </c>
       <c r="H42" t="n">
-        <v>7.875815718043162</v>
+        <v>9.148167220560758</v>
       </c>
       <c r="I42" t="inlineStr"/>
     </row>
@@ -1856,10 +1856,10 @@
         <v>0.1398828396058171</v>
       </c>
       <c r="G43" t="n">
-        <v>0.131562811434748</v>
+        <v>0.1374109283438065</v>
       </c>
       <c r="H43" t="n">
-        <v>-5.947854786558906</v>
+        <v>-1.767129741558238</v>
       </c>
       <c r="I43" t="inlineStr"/>
     </row>
@@ -1889,10 +1889,10 @@
         <v>-0.09280672947451118</v>
       </c>
       <c r="G44" t="n">
-        <v>-0.07888929680503047</v>
+        <v>-0.1049813255696242</v>
       </c>
       <c r="H44" t="n">
-        <v>-14.99614602118164</v>
+        <v>-13.11822554684107</v>
       </c>
       <c r="I44" t="inlineStr"/>
     </row>
@@ -1922,10 +1922,10 @@
         <v>-0.135684768442413</v>
       </c>
       <c r="G45" t="n">
-        <v>-0.100372785409041</v>
+        <v>-0.1048645495470728</v>
       </c>
       <c r="H45" t="n">
-        <v>-26.02501624812739</v>
+        <v>22.71457529768409</v>
       </c>
       <c r="I45" t="inlineStr"/>
     </row>
@@ -1955,10 +1955,10 @@
         <v>0.1196509483542268</v>
       </c>
       <c r="G46" t="n">
-        <v>0.1140850389120296</v>
+        <v>0.09111458423188377</v>
       </c>
       <c r="H46" t="n">
-        <v>-4.651788823034906</v>
+        <v>-23.84967650892417</v>
       </c>
       <c r="I46" t="inlineStr"/>
     </row>
@@ -1988,10 +1988,10 @@
         <v>0.1078194324209143</v>
       </c>
       <c r="G47" t="n">
-        <v>0.09738424985350871</v>
+        <v>0.1114815173236894</v>
       </c>
       <c r="H47" t="n">
-        <v>-9.678387590344443</v>
+        <v>3.396498034304944</v>
       </c>
       <c r="I47" t="inlineStr"/>
     </row>
@@ -2021,10 +2021,10 @@
         <v>0.009271221113961911</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03526477464667813</v>
+        <v>-0.01053430540236618</v>
       </c>
       <c r="H48" t="n">
-        <v>280.3681760277669</v>
+        <v>-213.6237101119521</v>
       </c>
       <c r="I48" t="inlineStr"/>
     </row>
@@ -2054,10 +2054,10 @@
         <v>0.0584439169143932</v>
       </c>
       <c r="G49" t="n">
-        <v>0.06454281176073394</v>
+        <v>0.06527400153728437</v>
       </c>
       <c r="H49" t="n">
-        <v>10.43546560247529</v>
+        <v>11.68656206409926</v>
       </c>
       <c r="I49" t="inlineStr"/>
     </row>
@@ -2087,10 +2087,10 @@
         <v>0.03450030728229148</v>
       </c>
       <c r="G50" t="n">
-        <v>0.01948531064188576</v>
+        <v>0.02183424608026898</v>
       </c>
       <c r="H50" t="n">
-        <v>-43.52134175950575</v>
+        <v>-36.71289388348089</v>
       </c>
       <c r="I50" t="inlineStr"/>
     </row>
@@ -2120,10 +2120,10 @@
         <v>0.03930788418595026</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03971918676586507</v>
+        <v>0.02285062370638796</v>
       </c>
       <c r="H51" t="n">
-        <v>1.046361533907788</v>
+        <v>-41.86758158162222</v>
       </c>
       <c r="I51" t="inlineStr"/>
     </row>
@@ -2153,10 +2153,10 @@
         <v>-0.006158526438982439</v>
       </c>
       <c r="G52" t="n">
-        <v>-0.02512183858395439</v>
+        <v>-0.0408383717473312</v>
       </c>
       <c r="H52" t="n">
-        <v>307.9196352058727</v>
+        <v>-563.1192080110457</v>
       </c>
       <c r="I52" t="inlineStr"/>
     </row>
@@ -2186,10 +2186,10 @@
         <v>-0.004774662854830472</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.01443005670610961</v>
+        <v>-0.03273374237191159</v>
       </c>
       <c r="H53" t="n">
-        <v>202.2214791880203</v>
+        <v>-585.5718061599938</v>
       </c>
       <c r="I53" t="inlineStr"/>
     </row>
@@ -2219,10 +2219,10 @@
         <v>0.04415694658471229</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05538488080889831</v>
+        <v>0.07211019798910816</v>
       </c>
       <c r="H54" t="n">
-        <v>25.4273338457539</v>
+        <v>63.30431238212846</v>
       </c>
       <c r="I54" t="inlineStr"/>
     </row>
@@ -2252,10 +2252,10 @@
         <v>0.07926870284689123</v>
       </c>
       <c r="G55" t="n">
-        <v>0.08744140506888239</v>
+        <v>0.08681678450918605</v>
       </c>
       <c r="H55" t="n">
-        <v>10.31012483927844</v>
+        <v>9.522146056652465</v>
       </c>
       <c r="I55" t="inlineStr"/>
     </row>
@@ -2285,10 +2285,10 @@
         <v>0.1000726041358321</v>
       </c>
       <c r="G56" t="n">
-        <v>0.09388145682082071</v>
+        <v>0.08811338253874906</v>
       </c>
       <c r="H56" t="n">
-        <v>-6.186655547214436</v>
+        <v>-11.95054500715337</v>
       </c>
       <c r="I56" t="inlineStr"/>
     </row>
@@ -2318,10 +2318,10 @@
         <v>0.1103832506947538</v>
       </c>
       <c r="G57" t="n">
-        <v>0.1020849359320311</v>
+        <v>0.09857344539457875</v>
       </c>
       <c r="H57" t="n">
-        <v>-7.517730009302115</v>
+        <v>-10.69891059181892</v>
       </c>
       <c r="I57" t="inlineStr"/>
     </row>
@@ -2351,10 +2351,10 @@
         <v>0.000606915721200788</v>
       </c>
       <c r="G58" t="n">
-        <v>0.007532799312722581</v>
+        <v>0.001589668306209723</v>
       </c>
       <c r="H58" t="n">
-        <v>1141.160683367845</v>
+        <v>161.9257090695477</v>
       </c>
       <c r="I58" t="inlineStr"/>
     </row>
@@ -2384,10 +2384,10 @@
         <v>0.006268794825673501</v>
       </c>
       <c r="G59" t="n">
-        <v>0.02052371833512117</v>
+        <v>0.02751998479648078</v>
       </c>
       <c r="H59" t="n">
-        <v>227.3949603688961</v>
+        <v>338.9996093630982</v>
       </c>
       <c r="I59" t="inlineStr"/>
     </row>
@@ -2417,10 +2417,10 @@
         <v>0.008575708995245046</v>
       </c>
       <c r="G60" t="n">
-        <v>0.01712399603838105</v>
+        <v>0.02018252593952745</v>
       </c>
       <c r="H60" t="n">
-        <v>99.68023690957511</v>
+        <v>135.345275250338</v>
       </c>
       <c r="I60" t="inlineStr"/>
     </row>
@@ -2450,10 +2450,10 @@
         <v>-0.01417195439250775</v>
       </c>
       <c r="G61" t="n">
-        <v>0.01684008546085245</v>
+        <v>0.01336683594493153</v>
       </c>
       <c r="H61" t="n">
-        <v>-218.8268392237788</v>
+        <v>194.3189314241523</v>
       </c>
       <c r="I61" t="inlineStr"/>
     </row>
@@ -2483,10 +2483,10 @@
         <v>-0.04820781920073289</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.02882561732330646</v>
+        <v>-0.0398935521720819</v>
       </c>
       <c r="H62" t="n">
-        <v>-40.20551478738488</v>
+        <v>17.24671882383052</v>
       </c>
       <c r="I62" t="inlineStr"/>
     </row>
@@ -2516,10 +2516,10 @@
         <v>-0.08060956652253479</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.04548384014793266</v>
+        <v>-0.05710920686076688</v>
       </c>
       <c r="H63" t="n">
-        <v>-43.57513368439038</v>
+        <v>29.15331352786554</v>
       </c>
       <c r="I63" t="inlineStr"/>
     </row>
@@ -2549,10 +2549,10 @@
         <v>0.06174173460430174</v>
       </c>
       <c r="G64" t="n">
-        <v>0.04770077210931773</v>
+        <v>0.04957769989756354</v>
       </c>
       <c r="H64" t="n">
-        <v>-22.74144480224197</v>
+        <v>-19.70147872374595</v>
       </c>
       <c r="I64" t="inlineStr"/>
     </row>
@@ -2582,10 +2582,10 @@
         <v>0.06662959811614069</v>
       </c>
       <c r="G65" t="n">
-        <v>0.06557381848468588</v>
+        <v>0.07151779662284145</v>
       </c>
       <c r="H65" t="n">
-        <v>-1.584550502037404</v>
+        <v>7.336376992969764</v>
       </c>
       <c r="I65" t="inlineStr"/>
     </row>
@@ -2615,10 +2615,10 @@
         <v>0.2131318946009768</v>
       </c>
       <c r="G66" t="n">
-        <v>0.1957884355292168</v>
+        <v>0.1934226976298131</v>
       </c>
       <c r="H66" t="n">
-        <v>-8.137430159962802</v>
+        <v>-9.247417899635838</v>
       </c>
       <c r="I66" t="inlineStr"/>
     </row>
@@ -2648,10 +2648,10 @@
         <v>0.2216592203847949</v>
       </c>
       <c r="G67" t="n">
-        <v>0.2044546811630888</v>
+        <v>0.2014990141089515</v>
       </c>
       <c r="H67" t="n">
-        <v>-7.761706998625847</v>
+        <v>-9.095135424931026</v>
       </c>
       <c r="I67" t="inlineStr"/>
     </row>
@@ -2681,10 +2681,10 @@
         <v>-0.08613029805961427</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.09109473022416585</v>
+        <v>-0.0811955167282562</v>
       </c>
       <c r="H68" t="n">
-        <v>5.7638627479444</v>
+        <v>5.729437192870856</v>
       </c>
       <c r="I68" t="inlineStr"/>
     </row>
@@ -2714,10 +2714,10 @@
         <v>-0.07682832271405972</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.06248138753417775</v>
+        <v>-0.07527278185687009</v>
       </c>
       <c r="H69" t="n">
-        <v>-18.67401847789716</v>
+        <v>2.02469714584172</v>
       </c>
       <c r="I69" t="inlineStr"/>
     </row>
@@ -2747,10 +2747,10 @@
         <v>-0.1388418424610572</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.1586103841189204</v>
+        <v>-0.1515595109326602</v>
       </c>
       <c r="H70" t="n">
-        <v>14.23817295093006</v>
+        <v>-9.159824045960846</v>
       </c>
       <c r="I70" t="inlineStr"/>
     </row>
@@ -2780,10 +2780,10 @@
         <v>-0.1464666816500254</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.1127968909155558</v>
+        <v>-0.1311355289332048</v>
       </c>
       <c r="H71" t="n">
-        <v>-22.98802045295315</v>
+        <v>10.46733123472656</v>
       </c>
       <c r="I71" t="inlineStr"/>
     </row>
@@ -2813,10 +2813,10 @@
         <v>0.1654037325064491</v>
       </c>
       <c r="G72" t="n">
-        <v>0.1341721959704633</v>
+        <v>0.1628837538061919</v>
       </c>
       <c r="H72" t="n">
-        <v>-18.88200227571533</v>
+        <v>-1.523531943367081</v>
       </c>
       <c r="I72" t="inlineStr"/>
     </row>
@@ -2846,10 +2846,10 @@
         <v>0.1440606197197999</v>
       </c>
       <c r="G73" t="n">
-        <v>0.153807150474856</v>
+        <v>0.1571414097212927</v>
       </c>
       <c r="H73" t="n">
-        <v>6.765576029044756</v>
+        <v>9.080059510319442</v>
       </c>
       <c r="I73" t="inlineStr"/>
     </row>
@@ -2879,10 +2879,10 @@
         <v>-0.02644312168572005</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.06588092833004033</v>
+        <v>-0.07157767549160779</v>
       </c>
       <c r="H74" t="n">
-        <v>149.1420230676384</v>
+        <v>-170.6854218738536</v>
       </c>
       <c r="I74" t="inlineStr"/>
     </row>
@@ -2912,10 +2912,10 @@
         <v>-0.03673443805039947</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.01879413083407854</v>
+        <v>-0.03924156928932857</v>
       </c>
       <c r="H75" t="n">
-        <v>-48.83784309346699</v>
+        <v>-6.82501590330395</v>
       </c>
       <c r="I75" t="inlineStr"/>
     </row>
@@ -2945,10 +2945,10 @@
         <v>0.0241116249856462</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.008011263258049395</v>
+        <v>0.001097722273958125</v>
       </c>
       <c r="H76" t="n">
-        <v>-133.2257293434953</v>
+        <v>-95.44733183843226</v>
       </c>
       <c r="I76" t="inlineStr"/>
     </row>
@@ -2978,10 +2978,10 @@
         <v>-0.009540996018607206</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02341219314085735</v>
+        <v>0.01656393248908138</v>
       </c>
       <c r="H77" t="n">
-        <v>-345.385210256854</v>
+        <v>273.6080012692362</v>
       </c>
       <c r="I77" t="inlineStr"/>
     </row>
@@ -3011,10 +3011,10 @@
         <v>0.07581151683776853</v>
       </c>
       <c r="G78" t="n">
-        <v>0.08342160020754126</v>
+        <v>0.0668501984650049</v>
       </c>
       <c r="H78" t="n">
-        <v>10.03816265285628</v>
+        <v>-11.82052377601182</v>
       </c>
       <c r="I78" t="inlineStr"/>
     </row>
@@ -3044,10 +3044,10 @@
         <v>0.08006386841778766</v>
       </c>
       <c r="G79" t="n">
-        <v>0.08342160020754126</v>
+        <v>0.08378549536783036</v>
       </c>
       <c r="H79" t="n">
-        <v>4.19381658182234</v>
+        <v>4.648322674870747</v>
       </c>
       <c r="I79" t="inlineStr"/>
     </row>
@@ -3077,10 +3077,10 @@
         <v>0.06522632324778001</v>
       </c>
       <c r="G80" t="n">
-        <v>0.06091841057024661</v>
+        <v>0.05689499766470963</v>
       </c>
       <c r="H80" t="n">
-        <v>-6.604561568139617</v>
+        <v>-12.77294988929786</v>
       </c>
       <c r="I80" t="inlineStr"/>
     </row>
@@ -3110,10 +3110,10 @@
         <v>0.03716494275777807</v>
       </c>
       <c r="G81" t="n">
-        <v>0.0454097833751588</v>
+        <v>0.0648753137313948</v>
       </c>
       <c r="H81" t="n">
-        <v>22.18445665614596</v>
+        <v>74.56051030192252</v>
       </c>
       <c r="I81" t="inlineStr"/>
     </row>
@@ -3143,10 +3143,10 @@
         <v>0.05802917472569856</v>
       </c>
       <c r="G82" t="n">
-        <v>0.06401738658534954</v>
+        <v>0.05832866404346963</v>
       </c>
       <c r="H82" t="n">
-        <v>10.31931246301021</v>
+        <v>0.5161012873037513</v>
       </c>
       <c r="I82" t="inlineStr"/>
     </row>
@@ -3176,10 +3176,10 @@
         <v>0.06401056695318895</v>
       </c>
       <c r="G83" t="n">
-        <v>0.07686740045396219</v>
+        <v>0.0686309044495616</v>
       </c>
       <c r="H83" t="n">
-        <v>20.08548605759963</v>
+        <v>7.218085569764622</v>
       </c>
       <c r="I83" t="inlineStr"/>
     </row>
@@ -3209,10 +3209,10 @@
         <v>-0.008333093508537951</v>
       </c>
       <c r="G84" t="n">
-        <v>0.007735000997914548</v>
+        <v>0.0124977032264344</v>
       </c>
       <c r="H84" t="n">
-        <v>-192.8226833166986</v>
+        <v>249.9767548945594</v>
       </c>
       <c r="I84" t="inlineStr"/>
     </row>
@@ -3242,10 +3242,10 @@
         <v>-0.003871410762059371</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.005683032862971075</v>
+        <v>-0.02707934078215361</v>
       </c>
       <c r="H85" t="n">
-        <v>46.79488207931787</v>
+        <v>-599.4695847709256</v>
       </c>
       <c r="I85" t="inlineStr"/>
     </row>
@@ -3275,10 +3275,10 @@
         <v>0.0252871550052199</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02278679923963325</v>
+        <v>0.02230458081406077</v>
       </c>
       <c r="H86" t="n">
-        <v>-9.88784924626955</v>
+        <v>-11.79481911090216</v>
       </c>
       <c r="I86" t="inlineStr"/>
     </row>
@@ -3308,10 +3308,10 @@
         <v>0.0296023691677582</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03152446253803321</v>
+        <v>0.0409592223289838</v>
       </c>
       <c r="H87" t="n">
-        <v>6.493038984084032</v>
+        <v>38.36467647864842</v>
       </c>
       <c r="I87" t="inlineStr"/>
     </row>
@@ -3341,10 +3341,10 @@
         <v>-0.01917066728033536</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.01948570899815641</v>
+        <v>-0.002173412584107167</v>
       </c>
       <c r="H88" t="n">
-        <v>1.643352905843852</v>
+        <v>88.66282246556652</v>
       </c>
       <c r="I88" t="inlineStr"/>
     </row>
@@ -3374,10 +3374,10 @@
         <v>-0.01607360886127331</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.00221145921777015</v>
+        <v>-0.02187273737366837</v>
       </c>
       <c r="H89" t="n">
-        <v>-86.2416758000234</v>
+        <v>-36.07857179085089</v>
       </c>
       <c r="I89" t="inlineStr"/>
     </row>
@@ -3407,10 +3407,10 @@
         <v>-0.02718932048265135</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.02013927493894859</v>
+        <v>-0.03858312303149203</v>
       </c>
       <c r="H90" t="n">
-        <v>-25.92946575550194</v>
+        <v>-41.90543326049912</v>
       </c>
       <c r="I90" t="inlineStr"/>
     </row>
@@ -3440,10 +3440,10 @@
         <v>0.002587924173862998</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.02267739849760126</v>
+        <v>-0.01830798641635721</v>
       </c>
       <c r="H91" t="n">
-        <v>-976.2775481072414</v>
+        <v>-807.4390587352045</v>
       </c>
       <c r="I91" t="inlineStr"/>
     </row>
@@ -3473,10 +3473,10 @@
         <v>-0.02218162813191362</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.002563517729632047</v>
+        <v>0.002990332762067028</v>
       </c>
       <c r="H92" t="n">
-        <v>-88.44305875841545</v>
+        <v>113.4811238574716</v>
       </c>
       <c r="I92" t="inlineStr"/>
     </row>
@@ -3506,10 +3506,10 @@
         <v>-0.0479899785492678</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.01101478809892429</v>
+        <v>-0.01799076728317285</v>
       </c>
       <c r="H93" t="n">
-        <v>-77.04773281443289</v>
+        <v>62.51140795009307</v>
       </c>
       <c r="I93" t="inlineStr"/>
     </row>
@@ -3539,10 +3539,10 @@
         <v>0.01443538508154987</v>
       </c>
       <c r="G94" t="n">
-        <v>0.005874488443267123</v>
+        <v>0.03202821285288329</v>
       </c>
       <c r="H94" t="n">
-        <v>-59.30494122546537</v>
+        <v>121.8729370359447</v>
       </c>
       <c r="I94" t="inlineStr"/>
     </row>
@@ -3572,10 +3572,10 @@
         <v>0.02757106880091253</v>
       </c>
       <c r="G95" t="n">
-        <v>0.02077399701194457</v>
+        <v>0.008461645669468212</v>
       </c>
       <c r="H95" t="n">
-        <v>-24.65291366848643</v>
+        <v>-69.3096929590624</v>
       </c>
       <c r="I95" t="inlineStr"/>
     </row>
@@ -3605,10 +3605,10 @@
         <v>-0.1174615858869304</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.1242438368776795</v>
+        <v>-0.1382747282314225</v>
       </c>
       <c r="H96" t="n">
-        <v>5.774016193922117</v>
+        <v>-17.71910551635752</v>
       </c>
       <c r="I96" t="inlineStr"/>
     </row>
@@ -3638,10 +3638,10 @@
         <v>-0.1623101903917984</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.1457251642483126</v>
+        <v>-0.1410760554212217</v>
       </c>
       <c r="H97" t="n">
-        <v>-10.21810528559631</v>
+        <v>13.08244104656639</v>
       </c>
       <c r="I97" t="inlineStr"/>
     </row>
@@ -3671,10 +3671,10 @@
         <v>0.1129671520447325</v>
       </c>
       <c r="G98" t="n">
-        <v>0.08437380576900488</v>
+        <v>0.1088573573521822</v>
       </c>
       <c r="H98" t="n">
-        <v>-25.31120397228858</v>
+        <v>-3.638043996119249</v>
       </c>
       <c r="I98" t="inlineStr"/>
     </row>
@@ -3704,10 +3704,10 @@
         <v>0.1050362907047985</v>
       </c>
       <c r="G99" t="n">
-        <v>0.1068962432320231</v>
+        <v>0.1314297736854487</v>
       </c>
       <c r="H99" t="n">
-        <v>1.770771335073074</v>
+        <v>25.12796558555969</v>
       </c>
       <c r="I99" t="inlineStr"/>
     </row>
@@ -3737,10 +3737,10 @@
         <v>0.02592655471171142</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01947554552704904</v>
+        <v>0.02718360834440152</v>
       </c>
       <c r="H100" t="n">
-        <v>-24.88186053408925</v>
+        <v>4.848517848467806</v>
       </c>
       <c r="I100" t="inlineStr"/>
     </row>
@@ -3770,10 +3770,10 @@
         <v>0.01324529942437244</v>
       </c>
       <c r="G101" t="n">
-        <v>0.02385762221794631</v>
+        <v>0.03983310112313371</v>
       </c>
       <c r="H101" t="n">
-        <v>80.12142612681387</v>
+        <v>200.7338667621022</v>
       </c>
       <c r="I101" t="inlineStr"/>
     </row>
@@ -3803,10 +3803,10 @@
         <v>0.0008523699446128174</v>
       </c>
       <c r="G102" t="n">
-        <v>0.003542663637538624</v>
+        <v>-0.009313352808472064</v>
       </c>
       <c r="H102" t="n">
-        <v>315.6251238008929</v>
+        <v>-1192.642093651318</v>
       </c>
       <c r="I102" t="inlineStr"/>
     </row>
@@ -3836,10 +3836,10 @@
         <v>0.01859691948750035</v>
       </c>
       <c r="G103" t="n">
-        <v>0.01133815051235627</v>
+        <v>0.01554458718415327</v>
       </c>
       <c r="H103" t="n">
-        <v>-39.03210410747305</v>
+        <v>-16.41310704925437</v>
       </c>
       <c r="I103" t="inlineStr"/>
     </row>
@@ -3869,10 +3869,10 @@
         <v>0.04685964934835764</v>
       </c>
       <c r="G104" t="n">
-        <v>0.07426624228004877</v>
+        <v>0.06258080725360284</v>
       </c>
       <c r="H104" t="n">
-        <v>58.48655146338968</v>
+        <v>33.54945699310104</v>
       </c>
       <c r="I104" t="inlineStr"/>
     </row>
@@ -3902,10 +3902,10 @@
         <v>0.04445404615924812</v>
       </c>
       <c r="G105" t="n">
-        <v>0.05696020879478435</v>
+        <v>0.07471054560460601</v>
       </c>
       <c r="H105" t="n">
-        <v>28.13278816226378</v>
+        <v>68.06241964335432</v>
       </c>
       <c r="I105" t="inlineStr"/>
     </row>
@@ -3935,10 +3935,10 @@
         <v>-0.3176161960821992</v>
       </c>
       <c r="G106" t="n">
-        <v>-0.3259319672133098</v>
+        <v>-0.3268971710478499</v>
       </c>
       <c r="H106" t="n">
-        <v>2.618182332540268</v>
+        <v>-2.922072325067689</v>
       </c>
       <c r="I106" t="inlineStr"/>
     </row>
@@ -3968,10 +3968,10 @@
         <v>-0.3058580179222677</v>
       </c>
       <c r="G107" t="n">
-        <v>-0.2895276850388311</v>
+        <v>-0.3365166826843441</v>
       </c>
       <c r="H107" t="n">
-        <v>-5.339187442059106</v>
+        <v>-10.02382248153722</v>
       </c>
       <c r="I107" t="inlineStr"/>
     </row>
@@ -4001,10 +4001,10 @@
         <v>0.219976300390154</v>
       </c>
       <c r="G108" t="n">
-        <v>0.2330792940168539</v>
+        <v>0.2346160383051926</v>
       </c>
       <c r="H108" t="n">
-        <v>5.956547866047472</v>
+        <v>6.655143253647451</v>
       </c>
       <c r="I108" t="inlineStr"/>
     </row>
@@ -4034,10 +4034,10 @@
         <v>0.249283133410306</v>
       </c>
       <c r="G109" t="n">
-        <v>0.2412233114902244</v>
+        <v>0.2487198193856167</v>
       </c>
       <c r="H109" t="n">
-        <v>-3.233199859861989</v>
+        <v>-0.2259735815187031</v>
       </c>
       <c r="I109" t="inlineStr"/>
     </row>
@@ -4067,10 +4067,10 @@
         <v>0.003822301047072578</v>
       </c>
       <c r="G110" t="n">
-        <v>-0.01535477018819321</v>
+        <v>-0.005254371475199039</v>
       </c>
       <c r="H110" t="n">
-        <v>-501.7153541569708</v>
+        <v>-237.4661862184627</v>
       </c>
       <c r="I110" t="inlineStr"/>
     </row>
@@ -4100,10 +4100,10 @@
         <v>0.02162869347624484</v>
       </c>
       <c r="G111" t="n">
-        <v>0.01481872619031133</v>
+        <v>0.03202498112144656</v>
       </c>
       <c r="H111" t="n">
-        <v>-31.48580053350431</v>
+        <v>48.06710889226915</v>
       </c>
       <c r="I111" t="inlineStr"/>
     </row>
@@ -4133,10 +4133,10 @@
         <v>0.04266279540653856</v>
       </c>
       <c r="G112" t="n">
-        <v>0.04121479302024667</v>
+        <v>0.05677919610072461</v>
       </c>
       <c r="H112" t="n">
-        <v>-3.394063545282755</v>
+        <v>33.08831631792827</v>
       </c>
       <c r="I112" t="inlineStr"/>
     </row>
@@ -4166,10 +4166,10 @@
         <v>0.03369441758879654</v>
       </c>
       <c r="G113" t="n">
-        <v>0.05258008212853813</v>
+        <v>0.05917062893955257</v>
       </c>
       <c r="H113" t="n">
-        <v>56.04983226070397</v>
+        <v>75.60959106539632</v>
       </c>
       <c r="I113" t="inlineStr"/>
     </row>

--- a/Code/Data/DAX30/Compared Returns/Auto Recurrence/input 250/DAX30_returns_compared_trimester.xlsx
+++ b/Code/Data/DAX30/Compared Returns/Auto Recurrence/input 250/DAX30_returns_compared_trimester.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -53,18 +53,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -501,13 +501,13 @@
         <v>0.04690428506837689</v>
       </c>
       <c r="G2" t="n">
-        <v>0.044507139894648</v>
+        <v>0.03534735382211144</v>
       </c>
       <c r="H2" t="n">
-        <v>-5.110716793219083</v>
+        <v>-24.63939324396012</v>
       </c>
       <c r="I2" t="n">
-        <v>-21.34439183544576</v>
+        <v>0.2428219676760501</v>
       </c>
     </row>
     <row r="3">
@@ -536,10 +536,10 @@
         <v>0.07240634976255141</v>
       </c>
       <c r="G3" t="n">
-        <v>0.06740262747370918</v>
+        <v>0.0869956869442018</v>
       </c>
       <c r="H3" t="n">
-        <v>-6.910612543307848</v>
+        <v>20.149251038748</v>
       </c>
       <c r="I3" t="inlineStr"/>
     </row>
@@ -569,10 +569,10 @@
         <v>0.05677872930236846</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0759057365161708</v>
+        <v>0.05234041351843635</v>
       </c>
       <c r="H4" t="n">
-        <v>33.6869236927507</v>
+        <v>-7.816863530524566</v>
       </c>
       <c r="I4" t="inlineStr"/>
     </row>
@@ -602,10 +602,10 @@
         <v>0.01431410888443309</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.002989573165701689</v>
+        <v>0.02648747936466976</v>
       </c>
       <c r="H5" t="n">
-        <v>-120.8854996831337</v>
+        <v>85.04455693693571</v>
       </c>
       <c r="I5" t="inlineStr"/>
     </row>
@@ -635,10 +635,10 @@
         <v>-0.02406522563137596</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.02006153895792808</v>
+        <v>-0.01890723965257306</v>
       </c>
       <c r="H6" t="n">
-        <v>16.63681336204852</v>
+        <v>21.43335806533215</v>
       </c>
       <c r="I6" t="inlineStr"/>
     </row>
@@ -668,10 +668,10 @@
         <v>-0.03313782199633989</v>
       </c>
       <c r="G7" t="n">
-        <v>0.001144632933237164</v>
+        <v>0.01415441236071174</v>
       </c>
       <c r="H7" t="n">
-        <v>103.4541586147804</v>
+        <v>142.7137678579935</v>
       </c>
       <c r="I7" t="inlineStr"/>
     </row>
@@ -701,10 +701,10 @@
         <v>0.03132415382667915</v>
       </c>
       <c r="G8" t="n">
-        <v>0.009941010745034741</v>
+        <v>0.03783086060655506</v>
       </c>
       <c r="H8" t="n">
-        <v>-68.26407251081794</v>
+        <v>20.77217094475532</v>
       </c>
       <c r="I8" t="inlineStr"/>
     </row>
@@ -734,10 +734,10 @@
         <v>0.01634254468973803</v>
       </c>
       <c r="G9" t="n">
-        <v>0.00928759139129029</v>
+        <v>0.0220442218788959</v>
       </c>
       <c r="H9" t="n">
-        <v>-43.1692458695111</v>
+        <v>34.88855192017998</v>
       </c>
       <c r="I9" t="inlineStr"/>
     </row>
@@ -767,10 +767,10 @@
         <v>-0.1585987240758367</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.1410068436955496</v>
+        <v>-0.167838414018753</v>
       </c>
       <c r="H10" t="n">
-        <v>11.09206929803245</v>
+        <v>-5.825828673437612</v>
       </c>
       <c r="I10" t="inlineStr"/>
     </row>
@@ -800,10 +800,10 @@
         <v>-0.1624399880904878</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.1537893537902405</v>
+        <v>-0.1576492025314979</v>
       </c>
       <c r="H11" t="n">
-        <v>5.325433966067777</v>
+        <v>2.949264904107957</v>
       </c>
       <c r="I11" t="inlineStr"/>
     </row>
@@ -833,10 +833,10 @@
         <v>-0.06057036026101323</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.07528304868605809</v>
+        <v>-0.08219613107412717</v>
       </c>
       <c r="H12" t="n">
-        <v>-24.29024420796593</v>
+        <v>-35.70355322293436</v>
       </c>
       <c r="I12" t="inlineStr"/>
     </row>
@@ -866,10 +866,10 @@
         <v>-0.09595844735096801</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.08535435189071953</v>
+        <v>-0.07314762363765603</v>
       </c>
       <c r="H13" t="n">
-        <v>11.05071596402972</v>
+        <v>23.77156398735944</v>
       </c>
       <c r="I13" t="inlineStr"/>
     </row>
@@ -899,10 +899,10 @@
         <v>-0.0880758363513635</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.0644539166906721</v>
+        <v>-0.06288104912046724</v>
       </c>
       <c r="H14" t="n">
-        <v>26.81997769110677</v>
+        <v>28.60578823275201</v>
       </c>
       <c r="I14" t="inlineStr"/>
     </row>
@@ -932,10 +932,10 @@
         <v>-0.09854107075769501</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.09035561894098119</v>
+        <v>-0.107441504227439</v>
       </c>
       <c r="H15" t="n">
-        <v>8.306639814013408</v>
+        <v>-9.032206978580009</v>
       </c>
       <c r="I15" t="inlineStr"/>
     </row>
@@ -965,10 +965,10 @@
         <v>-0.3086795035919008</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.2188400508856841</v>
+        <v>-0.2675802514678978</v>
       </c>
       <c r="H16" t="n">
-        <v>29.10444381982411</v>
+        <v>13.31453875160415</v>
       </c>
       <c r="I16" t="inlineStr"/>
     </row>
@@ -998,10 +998,10 @@
         <v>-0.3125468234095096</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.3192611322084137</v>
+        <v>-0.2709953582926801</v>
       </c>
       <c r="H17" t="n">
-        <v>-2.148256931764345</v>
+        <v>13.2944768606358</v>
       </c>
       <c r="I17" t="inlineStr"/>
     </row>
@@ -1031,10 +1031,10 @@
         <v>-0.1425913561743559</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.174828451333421</v>
+        <v>-0.1644711454170787</v>
       </c>
       <c r="H18" t="n">
-        <v>-22.60802900257621</v>
+        <v>-15.3444008316808</v>
       </c>
       <c r="I18" t="inlineStr"/>
     </row>
@@ -1064,10 +1064,10 @@
         <v>-0.1550685811404286</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.2077842871356534</v>
+        <v>-0.1584092839310925</v>
       </c>
       <c r="H19" t="n">
-        <v>-33.99509146697226</v>
+        <v>-2.154338916429879</v>
       </c>
       <c r="I19" t="inlineStr"/>
     </row>
@@ -1097,10 +1097,10 @@
         <v>0.1418115268149177</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1223763802075111</v>
+        <v>0.1137373515959912</v>
       </c>
       <c r="H20" t="n">
-        <v>-13.70491316462024</v>
+        <v>-19.79682177427433</v>
       </c>
       <c r="I20" t="inlineStr"/>
     </row>
@@ -1130,10 +1130,10 @@
         <v>0.1848395652975698</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2736411734551222</v>
+        <v>0.297544001143541</v>
       </c>
       <c r="H21" t="n">
-        <v>48.04253246029457</v>
+        <v>60.97419438556372</v>
       </c>
       <c r="I21" t="inlineStr"/>
     </row>
@@ -1163,10 +1163,10 @@
         <v>0.1839959105938305</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1757402116281885</v>
+        <v>0.1739394674397982</v>
       </c>
       <c r="H22" t="n">
-        <v>-4.486892637449088</v>
+        <v>-5.465579708579395</v>
       </c>
       <c r="I22" t="inlineStr"/>
     </row>
@@ -1196,10 +1196,10 @@
         <v>0.167097082751942</v>
       </c>
       <c r="G23" t="n">
-        <v>0.2085069884482651</v>
+        <v>0.194193918381606</v>
       </c>
       <c r="H23" t="n">
-        <v>24.7819441335171</v>
+        <v>16.21622303836964</v>
       </c>
       <c r="I23" t="inlineStr"/>
     </row>
@@ -1229,10 +1229,10 @@
         <v>0.06416166522379767</v>
       </c>
       <c r="G24" t="n">
-        <v>0.07373908458539202</v>
+        <v>0.07023093027340618</v>
       </c>
       <c r="H24" t="n">
-        <v>14.92701183516365</v>
+        <v>9.459332186031567</v>
       </c>
       <c r="I24" t="inlineStr"/>
     </row>
@@ -1262,10 +1262,10 @@
         <v>0.03288457073106435</v>
       </c>
       <c r="G25" t="n">
-        <v>0.04520451385946138</v>
+        <v>0.05691064863048426</v>
       </c>
       <c r="H25" t="n">
-        <v>37.46420541460503</v>
+        <v>73.06185656461595</v>
       </c>
       <c r="I25" t="inlineStr"/>
     </row>
@@ -1295,10 +1295,10 @@
         <v>0.05401082814340269</v>
       </c>
       <c r="G26" t="n">
-        <v>0.04583185887458358</v>
+        <v>0.02870414640971621</v>
       </c>
       <c r="H26" t="n">
-        <v>-15.14320285388579</v>
+        <v>-46.8548300472183</v>
       </c>
       <c r="I26" t="inlineStr"/>
     </row>
@@ -1328,10 +1328,10 @@
         <v>0.06433468169381938</v>
       </c>
       <c r="G27" t="n">
-        <v>0.05529503639621992</v>
+        <v>0.04058005154247164</v>
       </c>
       <c r="H27" t="n">
-        <v>-14.0509676267939</v>
+        <v>-36.92352169301218</v>
       </c>
       <c r="I27" t="inlineStr"/>
     </row>
@@ -1361,10 +1361,10 @@
         <v>-0.05928198100296411</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.06932473752436261</v>
+        <v>-0.0504559060708856</v>
       </c>
       <c r="H28" t="n">
-        <v>-16.94065608383828</v>
+        <v>14.88829283831998</v>
       </c>
       <c r="I28" t="inlineStr"/>
     </row>
@@ -1394,10 +1394,10 @@
         <v>-0.05281150307367723</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.08011536415325114</v>
+        <v>-0.04842410729354647</v>
       </c>
       <c r="H29" t="n">
-        <v>-51.7005945494154</v>
+        <v>8.307651789440468</v>
       </c>
       <c r="I29" t="inlineStr"/>
     </row>
@@ -1427,10 +1427,10 @@
         <v>0.07699420258580157</v>
       </c>
       <c r="G30" t="n">
-        <v>0.07358681644002943</v>
+        <v>0.04876683159994825</v>
       </c>
       <c r="H30" t="n">
-        <v>-4.425510014179296</v>
+        <v>-36.66168365650261</v>
       </c>
       <c r="I30" t="inlineStr"/>
     </row>
@@ -1460,10 +1460,10 @@
         <v>0.06115431279408023</v>
       </c>
       <c r="G31" t="n">
-        <v>0.08678110231978667</v>
+        <v>0.09727378095712105</v>
       </c>
       <c r="H31" t="n">
-        <v>41.90512223070411</v>
+        <v>59.06283058835584</v>
       </c>
       <c r="I31" t="inlineStr"/>
     </row>
@@ -1493,10 +1493,10 @@
         <v>0.07344886362917534</v>
       </c>
       <c r="G32" t="n">
-        <v>0.07296781789929342</v>
+        <v>0.07305720828255619</v>
       </c>
       <c r="H32" t="n">
-        <v>-0.6549396493192814</v>
+        <v>-0.5332354066041417</v>
       </c>
       <c r="I32" t="inlineStr"/>
     </row>
@@ -1526,10 +1526,10 @@
         <v>0.1261993152982801</v>
       </c>
       <c r="G33" t="n">
-        <v>0.1192516692199377</v>
+        <v>0.1087639347330333</v>
       </c>
       <c r="H33" t="n">
-        <v>-5.505296175277339</v>
+        <v>-13.81574893971269</v>
       </c>
       <c r="I33" t="inlineStr"/>
     </row>
@@ -1559,10 +1559,10 @@
         <v>0.02737189623751556</v>
       </c>
       <c r="G34" t="n">
-        <v>0.03350256077265752</v>
+        <v>0.02018446663818339</v>
       </c>
       <c r="H34" t="n">
-        <v>22.39766102408117</v>
+        <v>-26.25842775730376</v>
       </c>
       <c r="I34" t="inlineStr"/>
     </row>
@@ -1592,10 +1592,10 @@
         <v>0.02703077430986488</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0256418587219779</v>
+        <v>0.01731091459442891</v>
       </c>
       <c r="H35" t="n">
-        <v>-5.138275256066546</v>
+        <v>-35.95849532097461</v>
       </c>
       <c r="I35" t="inlineStr"/>
     </row>
@@ -1625,10 +1625,10 @@
         <v>0.03421515439615114</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02880982654038093</v>
+        <v>0.03412700483286531</v>
       </c>
       <c r="H36" t="n">
-        <v>-15.79805191929297</v>
+        <v>-0.2576331010090263</v>
       </c>
       <c r="I36" t="inlineStr"/>
     </row>
@@ -1658,10 +1658,10 @@
         <v>0.06941034141498056</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04342036929088674</v>
+        <v>0.03232214145086858</v>
       </c>
       <c r="H37" t="n">
-        <v>-37.44394796837076</v>
+        <v>-53.43324814147562</v>
       </c>
       <c r="I37" t="inlineStr"/>
     </row>
@@ -1691,10 +1691,10 @@
         <v>-0.2402862095039686</v>
       </c>
       <c r="G38" t="n">
-        <v>-0.249975489687869</v>
+        <v>-0.2295042942304294</v>
       </c>
       <c r="H38" t="n">
-        <v>-4.032391290329289</v>
+        <v>4.487113636607231</v>
       </c>
       <c r="I38" t="inlineStr"/>
     </row>
@@ -1724,10 +1724,10 @@
         <v>-0.2687051904527817</v>
       </c>
       <c r="G39" t="n">
-        <v>-0.2399446984942939</v>
+        <v>-0.2394994532762487</v>
       </c>
       <c r="H39" t="n">
-        <v>10.7033630091123</v>
+        <v>10.86906327612052</v>
       </c>
       <c r="I39" t="inlineStr"/>
     </row>
@@ -1757,10 +1757,10 @@
         <v>0.1249543385180605</v>
       </c>
       <c r="G40" t="n">
-        <v>0.1431708341938273</v>
+        <v>0.1462025615438944</v>
       </c>
       <c r="H40" t="n">
-        <v>14.57852195594942</v>
+        <v>17.00479013200711</v>
       </c>
       <c r="I40" t="inlineStr"/>
     </row>
@@ -1790,10 +1790,10 @@
         <v>0.1477318918246991</v>
       </c>
       <c r="G41" t="n">
-        <v>0.1263382108767621</v>
+        <v>0.1397765932864282</v>
       </c>
       <c r="H41" t="n">
-        <v>-14.48142353265404</v>
+        <v>-5.384956788958458</v>
       </c>
       <c r="I41" t="inlineStr"/>
     </row>
@@ -1823,10 +1823,10 @@
         <v>0.1193177533271809</v>
       </c>
       <c r="G42" t="n">
-        <v>0.1302331409253676</v>
+        <v>0.1431078050724262</v>
       </c>
       <c r="H42" t="n">
-        <v>9.148167220560758</v>
+        <v>19.93840068376972</v>
       </c>
       <c r="I42" t="inlineStr"/>
     </row>
@@ -1856,10 +1856,10 @@
         <v>0.1398828396058171</v>
       </c>
       <c r="G43" t="n">
-        <v>0.1374109283438065</v>
+        <v>0.1231493988162752</v>
       </c>
       <c r="H43" t="n">
-        <v>-1.767129741558238</v>
+        <v>-11.9624686178061</v>
       </c>
       <c r="I43" t="inlineStr"/>
     </row>
@@ -1889,10 +1889,10 @@
         <v>-0.09280672947451118</v>
       </c>
       <c r="G44" t="n">
-        <v>-0.1049813255696242</v>
+        <v>-0.1000450373078542</v>
       </c>
       <c r="H44" t="n">
-        <v>-13.11822554684107</v>
+        <v>-7.799335106761819</v>
       </c>
       <c r="I44" t="inlineStr"/>
     </row>
@@ -1922,10 +1922,10 @@
         <v>-0.135684768442413</v>
       </c>
       <c r="G45" t="n">
-        <v>-0.1048645495470728</v>
+        <v>-0.1015130707104773</v>
       </c>
       <c r="H45" t="n">
-        <v>22.71457529768409</v>
+        <v>25.18462324416227</v>
       </c>
       <c r="I45" t="inlineStr"/>
     </row>
@@ -1955,10 +1955,10 @@
         <v>0.1196509483542268</v>
       </c>
       <c r="G46" t="n">
-        <v>0.09111458423188377</v>
+        <v>0.1115425533263027</v>
       </c>
       <c r="H46" t="n">
-        <v>-23.84967650892417</v>
+        <v>-6.776707698061184</v>
       </c>
       <c r="I46" t="inlineStr"/>
     </row>
@@ -1988,10 +1988,10 @@
         <v>0.1078194324209143</v>
       </c>
       <c r="G47" t="n">
-        <v>0.1114815173236894</v>
+        <v>0.12512568416378</v>
       </c>
       <c r="H47" t="n">
-        <v>3.396498034304944</v>
+        <v>16.05114342960381</v>
       </c>
       <c r="I47" t="inlineStr"/>
     </row>
@@ -2021,10 +2021,10 @@
         <v>0.009271221113961911</v>
       </c>
       <c r="G48" t="n">
-        <v>-0.01053430540236618</v>
+        <v>0.02211117521279267</v>
       </c>
       <c r="H48" t="n">
-        <v>-213.6237101119521</v>
+        <v>138.4925884196047</v>
       </c>
       <c r="I48" t="inlineStr"/>
     </row>
@@ -2054,10 +2054,10 @@
         <v>0.0584439169143932</v>
       </c>
       <c r="G49" t="n">
-        <v>0.06527400153728437</v>
+        <v>0.04046519467618653</v>
       </c>
       <c r="H49" t="n">
-        <v>11.68656206409926</v>
+        <v>-30.76234993719077</v>
       </c>
       <c r="I49" t="inlineStr"/>
     </row>
@@ -2087,10 +2087,10 @@
         <v>0.03450030728229148</v>
       </c>
       <c r="G50" t="n">
-        <v>0.02183424608026898</v>
+        <v>0.02191791252556315</v>
       </c>
       <c r="H50" t="n">
-        <v>-36.71289388348089</v>
+        <v>-36.47038460781101</v>
       </c>
       <c r="I50" t="inlineStr"/>
     </row>
@@ -2120,10 +2120,10 @@
         <v>0.03930788418595026</v>
       </c>
       <c r="G51" t="n">
-        <v>0.02285062370638796</v>
+        <v>0.02804866880098143</v>
       </c>
       <c r="H51" t="n">
-        <v>-41.86758158162222</v>
+        <v>-28.64365665601811</v>
       </c>
       <c r="I51" t="inlineStr"/>
     </row>
@@ -2153,10 +2153,10 @@
         <v>-0.006158526438982439</v>
       </c>
       <c r="G52" t="n">
-        <v>-0.0408383717473312</v>
+        <v>-0.02798610495445062</v>
       </c>
       <c r="H52" t="n">
-        <v>-563.1192080110457</v>
+        <v>-354.428591510191</v>
       </c>
       <c r="I52" t="inlineStr"/>
     </row>
@@ -2186,10 +2186,10 @@
         <v>-0.004774662854830472</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.03273374237191159</v>
+        <v>-0.009274528381690756</v>
       </c>
       <c r="H53" t="n">
-        <v>-585.5718061599938</v>
+        <v>-94.24467577449623</v>
       </c>
       <c r="I53" t="inlineStr"/>
     </row>
@@ -2219,10 +2219,10 @@
         <v>0.04415694658471229</v>
       </c>
       <c r="G54" t="n">
-        <v>0.07211019798910816</v>
+        <v>0.07479868338774087</v>
       </c>
       <c r="H54" t="n">
-        <v>63.30431238212846</v>
+        <v>69.39278906942617</v>
       </c>
       <c r="I54" t="inlineStr"/>
     </row>
@@ -2252,10 +2252,10 @@
         <v>0.07926870284689123</v>
       </c>
       <c r="G55" t="n">
-        <v>0.08681678450918605</v>
+        <v>0.07837299313711318</v>
       </c>
       <c r="H55" t="n">
-        <v>9.522146056652465</v>
+        <v>-1.129966402387242</v>
       </c>
       <c r="I55" t="inlineStr"/>
     </row>
@@ -2285,10 +2285,10 @@
         <v>0.1000726041358321</v>
       </c>
       <c r="G56" t="n">
-        <v>0.08811338253874906</v>
+        <v>0.08892024095531249</v>
       </c>
       <c r="H56" t="n">
-        <v>-11.95054500715337</v>
+        <v>-11.14427197815509</v>
       </c>
       <c r="I56" t="inlineStr"/>
     </row>
@@ -2318,10 +2318,10 @@
         <v>0.1103832506947538</v>
       </c>
       <c r="G57" t="n">
-        <v>0.09857344539457875</v>
+        <v>0.1016112625896744</v>
       </c>
       <c r="H57" t="n">
-        <v>-10.69891059181892</v>
+        <v>-7.946847053215389</v>
       </c>
       <c r="I57" t="inlineStr"/>
     </row>
@@ -2351,10 +2351,10 @@
         <v>0.000606915721200788</v>
       </c>
       <c r="G58" t="n">
-        <v>0.001589668306209723</v>
+        <v>0.003666503480921726</v>
       </c>
       <c r="H58" t="n">
-        <v>161.9257090695477</v>
+        <v>504.1206963081327</v>
       </c>
       <c r="I58" t="inlineStr"/>
     </row>
@@ -2384,10 +2384,10 @@
         <v>0.006268794825673501</v>
       </c>
       <c r="G59" t="n">
-        <v>0.02751998479648078</v>
+        <v>0.02091182817699246</v>
       </c>
       <c r="H59" t="n">
-        <v>338.9996093630982</v>
+        <v>233.5861000163736</v>
       </c>
       <c r="I59" t="inlineStr"/>
     </row>
@@ -2417,10 +2417,10 @@
         <v>0.008575708995245046</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02018252593952745</v>
+        <v>0.002848031396014306</v>
       </c>
       <c r="H60" t="n">
-        <v>135.345275250338</v>
+        <v>-66.78955177241383</v>
       </c>
       <c r="I60" t="inlineStr"/>
     </row>
@@ -2450,10 +2450,10 @@
         <v>-0.01417195439250775</v>
       </c>
       <c r="G61" t="n">
-        <v>0.01336683594493153</v>
+        <v>0.01602303141112519</v>
       </c>
       <c r="H61" t="n">
-        <v>194.3189314241523</v>
+        <v>213.0615507738018</v>
       </c>
       <c r="I61" t="inlineStr"/>
     </row>
@@ -2483,10 +2483,10 @@
         <v>-0.04820781920073289</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.0398935521720819</v>
+        <v>-0.01874743547203901</v>
       </c>
       <c r="H62" t="n">
-        <v>17.24671882383052</v>
+        <v>61.11121435720536</v>
       </c>
       <c r="I62" t="inlineStr"/>
     </row>
@@ -2516,10 +2516,10 @@
         <v>-0.08060956652253479</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.05710920686076688</v>
+        <v>-0.06224681233786109</v>
       </c>
       <c r="H63" t="n">
-        <v>29.15331352786554</v>
+        <v>22.77986965671165</v>
       </c>
       <c r="I63" t="inlineStr"/>
     </row>
@@ -2549,10 +2549,10 @@
         <v>0.06174173460430174</v>
       </c>
       <c r="G64" t="n">
-        <v>0.04957769989756354</v>
+        <v>0.04600761847261037</v>
       </c>
       <c r="H64" t="n">
-        <v>-19.70147872374595</v>
+        <v>-25.48376107754369</v>
       </c>
       <c r="I64" t="inlineStr"/>
     </row>
@@ -2582,10 +2582,10 @@
         <v>0.06662959811614069</v>
       </c>
       <c r="G65" t="n">
-        <v>0.07151779662284145</v>
+        <v>0.08256819615186141</v>
       </c>
       <c r="H65" t="n">
-        <v>7.336376992969764</v>
+        <v>23.92119791558471</v>
       </c>
       <c r="I65" t="inlineStr"/>
     </row>
@@ -2615,10 +2615,10 @@
         <v>0.2131318946009768</v>
       </c>
       <c r="G66" t="n">
-        <v>0.1934226976298131</v>
+        <v>0.2143560075117723</v>
       </c>
       <c r="H66" t="n">
-        <v>-9.247417899635838</v>
+        <v>0.574345249023974</v>
       </c>
       <c r="I66" t="inlineStr"/>
     </row>
@@ -2648,10 +2648,10 @@
         <v>0.2216592203847949</v>
       </c>
       <c r="G67" t="n">
-        <v>0.2014990141089515</v>
+        <v>0.2221371335120413</v>
       </c>
       <c r="H67" t="n">
-        <v>-9.095135424931026</v>
+        <v>0.2156071497575237</v>
       </c>
       <c r="I67" t="inlineStr"/>
     </row>
@@ -2681,10 +2681,10 @@
         <v>-0.08613029805961427</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.0811955167282562</v>
+        <v>-0.08715296249250237</v>
       </c>
       <c r="H68" t="n">
-        <v>5.729437192870856</v>
+        <v>-1.187345749320732</v>
       </c>
       <c r="I68" t="inlineStr"/>
     </row>
@@ -2714,10 +2714,10 @@
         <v>-0.07682832271405972</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.07527278185687009</v>
+        <v>-0.08473954377978092</v>
       </c>
       <c r="H69" t="n">
-        <v>2.02469714584172</v>
+        <v>-10.29727161318522</v>
       </c>
       <c r="I69" t="inlineStr"/>
     </row>
@@ -2747,10 +2747,10 @@
         <v>-0.1388418424610572</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.1515595109326602</v>
+        <v>-0.1489330124910434</v>
       </c>
       <c r="H70" t="n">
-        <v>-9.159824045960846</v>
+        <v>-7.268104377696222</v>
       </c>
       <c r="I70" t="inlineStr"/>
     </row>
@@ -2780,10 +2780,10 @@
         <v>-0.1464666816500254</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.1311355289332048</v>
+        <v>-0.1273420526979646</v>
       </c>
       <c r="H71" t="n">
-        <v>10.46733123472656</v>
+        <v>13.05732384772541</v>
       </c>
       <c r="I71" t="inlineStr"/>
     </row>
@@ -2813,10 +2813,10 @@
         <v>0.1654037325064491</v>
       </c>
       <c r="G72" t="n">
-        <v>0.1628837538061919</v>
+        <v>0.1450624613173268</v>
       </c>
       <c r="H72" t="n">
-        <v>-1.523531943367081</v>
+        <v>-12.29795173354337</v>
       </c>
       <c r="I72" t="inlineStr"/>
     </row>
@@ -2846,10 +2846,10 @@
         <v>0.1440606197197999</v>
       </c>
       <c r="G73" t="n">
-        <v>0.1571414097212927</v>
+        <v>0.1618453386125755</v>
       </c>
       <c r="H73" t="n">
-        <v>9.080059510319442</v>
+        <v>12.34530222580408</v>
       </c>
       <c r="I73" t="inlineStr"/>
     </row>
@@ -2879,10 +2879,10 @@
         <v>-0.02644312168572005</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.07157767549160779</v>
+        <v>-0.06986755552383619</v>
       </c>
       <c r="H74" t="n">
-        <v>-170.6854218738536</v>
+        <v>-164.218258170201</v>
       </c>
       <c r="I74" t="inlineStr"/>
     </row>
@@ -2912,10 +2912,10 @@
         <v>-0.03673443805039947</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.03924156928932857</v>
+        <v>-0.05072085235512135</v>
       </c>
       <c r="H75" t="n">
-        <v>-6.82501590330395</v>
+        <v>-38.07439298658276</v>
       </c>
       <c r="I75" t="inlineStr"/>
     </row>
@@ -2945,10 +2945,10 @@
         <v>0.0241116249856462</v>
       </c>
       <c r="G76" t="n">
-        <v>0.001097722273958125</v>
+        <v>0.002394192347250438</v>
       </c>
       <c r="H76" t="n">
-        <v>-95.44733183843226</v>
+        <v>-90.0703816160225</v>
       </c>
       <c r="I76" t="inlineStr"/>
     </row>
@@ -2978,10 +2978,10 @@
         <v>-0.009540996018607206</v>
       </c>
       <c r="G77" t="n">
-        <v>0.01656393248908138</v>
+        <v>0.0153566019118577</v>
       </c>
       <c r="H77" t="n">
-        <v>273.6080012692362</v>
+        <v>260.9538656331969</v>
       </c>
       <c r="I77" t="inlineStr"/>
     </row>
@@ -3011,10 +3011,10 @@
         <v>0.07581151683776853</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0668501984650049</v>
+        <v>0.0690468601584964</v>
       </c>
       <c r="H78" t="n">
-        <v>-11.82052377601182</v>
+        <v>-8.922993446692322</v>
       </c>
       <c r="I78" t="inlineStr"/>
     </row>
@@ -3044,10 +3044,10 @@
         <v>0.08006386841778766</v>
       </c>
       <c r="G79" t="n">
-        <v>0.08378549536783036</v>
+        <v>0.08610802919509961</v>
       </c>
       <c r="H79" t="n">
-        <v>4.648322674870747</v>
+        <v>7.549174049113423</v>
       </c>
       <c r="I79" t="inlineStr"/>
     </row>
@@ -3077,10 +3077,10 @@
         <v>0.06522632324778001</v>
       </c>
       <c r="G80" t="n">
-        <v>0.05689499766470963</v>
+        <v>0.05615781939194568</v>
       </c>
       <c r="H80" t="n">
-        <v>-12.77294988929786</v>
+        <v>-13.90313512136065</v>
       </c>
       <c r="I80" t="inlineStr"/>
     </row>
@@ -3110,10 +3110,10 @@
         <v>0.03716494275777807</v>
       </c>
       <c r="G81" t="n">
-        <v>0.0648753137313948</v>
+        <v>0.05960673330976164</v>
       </c>
       <c r="H81" t="n">
-        <v>74.56051030192252</v>
+        <v>60.38430005999898</v>
       </c>
       <c r="I81" t="inlineStr"/>
     </row>
@@ -3143,10 +3143,10 @@
         <v>0.05802917472569856</v>
       </c>
       <c r="G82" t="n">
-        <v>0.05832866404346963</v>
+        <v>0.06243140085853669</v>
       </c>
       <c r="H82" t="n">
-        <v>0.5161012873037513</v>
+        <v>7.586229088466736</v>
       </c>
       <c r="I82" t="inlineStr"/>
     </row>
@@ -3176,10 +3176,10 @@
         <v>0.06401056695318895</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0686309044495616</v>
+        <v>0.06469128451834953</v>
       </c>
       <c r="H83" t="n">
-        <v>7.218085569764622</v>
+        <v>1.063445611500977</v>
       </c>
       <c r="I83" t="inlineStr"/>
     </row>
@@ -3209,10 +3209,10 @@
         <v>-0.008333093508537951</v>
       </c>
       <c r="G84" t="n">
-        <v>0.0124977032264344</v>
+        <v>-0.004275183928404518</v>
       </c>
       <c r="H84" t="n">
-        <v>249.9767548945594</v>
+        <v>48.69631639169494</v>
       </c>
       <c r="I84" t="inlineStr"/>
     </row>
@@ -3242,10 +3242,10 @@
         <v>-0.003871410762059371</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.02707934078215361</v>
+        <v>0.002830648604642218</v>
       </c>
       <c r="H85" t="n">
-        <v>-599.4695847709256</v>
+        <v>173.1167209737381</v>
       </c>
       <c r="I85" t="inlineStr"/>
     </row>
@@ -3275,10 +3275,10 @@
         <v>0.0252871550052199</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02230458081406077</v>
+        <v>0.01413622635184622</v>
       </c>
       <c r="H86" t="n">
-        <v>-11.79481911090216</v>
+        <v>-44.09720528494348</v>
       </c>
       <c r="I86" t="inlineStr"/>
     </row>
@@ -3308,10 +3308,10 @@
         <v>0.0296023691677582</v>
       </c>
       <c r="G87" t="n">
-        <v>0.0409592223289838</v>
+        <v>0.01969731691302754</v>
       </c>
       <c r="H87" t="n">
-        <v>38.36467647864842</v>
+        <v>-33.46033622713846</v>
       </c>
       <c r="I87" t="inlineStr"/>
     </row>
@@ -3341,10 +3341,10 @@
         <v>-0.01917066728033536</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.002173412584107167</v>
+        <v>-0.007356969108591531</v>
       </c>
       <c r="H88" t="n">
-        <v>88.66282246556652</v>
+        <v>61.62382351636728</v>
       </c>
       <c r="I88" t="inlineStr"/>
     </row>
@@ -3374,10 +3374,10 @@
         <v>-0.01607360886127331</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.02187273737366837</v>
+        <v>0.003400368666594183</v>
       </c>
       <c r="H89" t="n">
-        <v>-36.07857179085089</v>
+        <v>121.1549795440575</v>
       </c>
       <c r="I89" t="inlineStr"/>
     </row>
@@ -3407,10 +3407,10 @@
         <v>-0.02718932048265135</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.03858312303149203</v>
+        <v>-0.03180510025685238</v>
       </c>
       <c r="H90" t="n">
-        <v>-41.90543326049912</v>
+        <v>-16.97644403120048</v>
       </c>
       <c r="I90" t="inlineStr"/>
     </row>
@@ -3440,10 +3440,10 @@
         <v>0.002587924173862998</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.01830798641635721</v>
+        <v>-0.01807018346983266</v>
       </c>
       <c r="H91" t="n">
-        <v>-807.4390587352045</v>
+        <v>-798.2501130571871</v>
       </c>
       <c r="I91" t="inlineStr"/>
     </row>
@@ -3473,10 +3473,10 @@
         <v>-0.02218162813191362</v>
       </c>
       <c r="G92" t="n">
-        <v>0.002990332762067028</v>
+        <v>0.005462288512489873</v>
       </c>
       <c r="H92" t="n">
-        <v>113.4811238574716</v>
+        <v>124.6252821479369</v>
       </c>
       <c r="I92" t="inlineStr"/>
     </row>
@@ -3506,10 +3506,10 @@
         <v>-0.0479899785492678</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.01799076728317285</v>
+        <v>-0.01904678789542773</v>
       </c>
       <c r="H93" t="n">
-        <v>62.51140795009307</v>
+        <v>60.31090558651992</v>
       </c>
       <c r="I93" t="inlineStr"/>
     </row>
@@ -3539,10 +3539,10 @@
         <v>0.01443538508154987</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03202821285288329</v>
+        <v>0.01506413386663741</v>
       </c>
       <c r="H94" t="n">
-        <v>121.8729370359447</v>
+        <v>4.355607983684174</v>
       </c>
       <c r="I94" t="inlineStr"/>
     </row>
@@ -3572,10 +3572,10 @@
         <v>0.02757106880091253</v>
       </c>
       <c r="G95" t="n">
-        <v>0.008461645669468212</v>
+        <v>0.01921542574860131</v>
       </c>
       <c r="H95" t="n">
-        <v>-69.3096929590624</v>
+        <v>-30.30583657328029</v>
       </c>
       <c r="I95" t="inlineStr"/>
     </row>
@@ -3605,10 +3605,10 @@
         <v>-0.1174615858869304</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.1382747282314225</v>
+        <v>-0.1295304463042916</v>
       </c>
       <c r="H96" t="n">
-        <v>-17.71910551635752</v>
+        <v>-10.27472967117847</v>
       </c>
       <c r="I96" t="inlineStr"/>
     </row>
@@ -3638,10 +3638,10 @@
         <v>-0.1623101903917984</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.1410760554212217</v>
+        <v>-0.1390514274402363</v>
       </c>
       <c r="H97" t="n">
-        <v>13.08244104656639</v>
+        <v>14.32982297378746</v>
       </c>
       <c r="I97" t="inlineStr"/>
     </row>
@@ -3671,10 +3671,10 @@
         <v>0.1129671520447325</v>
       </c>
       <c r="G98" t="n">
-        <v>0.1088573573521822</v>
+        <v>0.1011976030646022</v>
       </c>
       <c r="H98" t="n">
-        <v>-3.638043996119249</v>
+        <v>-10.41855864036461</v>
       </c>
       <c r="I98" t="inlineStr"/>
     </row>
@@ -3704,10 +3704,10 @@
         <v>0.1050362907047985</v>
       </c>
       <c r="G99" t="n">
-        <v>0.1314297736854487</v>
+        <v>0.1130088002174569</v>
       </c>
       <c r="H99" t="n">
-        <v>25.12796558555969</v>
+        <v>7.590242819088989</v>
       </c>
       <c r="I99" t="inlineStr"/>
     </row>
@@ -3737,10 +3737,10 @@
         <v>0.02592655471171142</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02718360834440152</v>
+        <v>0.01363702165173224</v>
       </c>
       <c r="H100" t="n">
-        <v>4.848517848467806</v>
+        <v>-47.40133502747209</v>
       </c>
       <c r="I100" t="inlineStr"/>
     </row>
@@ -3770,10 +3770,10 @@
         <v>0.01324529942437244</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03983310112313371</v>
+        <v>0.03029572171000663</v>
       </c>
       <c r="H101" t="n">
-        <v>200.7338667621022</v>
+        <v>128.7280999798314</v>
       </c>
       <c r="I101" t="inlineStr"/>
     </row>
@@ -3803,10 +3803,10 @@
         <v>0.0008523699446128174</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.009313352808472064</v>
+        <v>-0.00902006060017008</v>
       </c>
       <c r="H102" t="n">
-        <v>-1192.642093651318</v>
+        <v>-1158.233066191391</v>
       </c>
       <c r="I102" t="inlineStr"/>
     </row>
@@ -3836,10 +3836,10 @@
         <v>0.01859691948750035</v>
       </c>
       <c r="G103" t="n">
-        <v>0.01554458718415327</v>
+        <v>0.0358027949779436</v>
       </c>
       <c r="H103" t="n">
-        <v>-16.41310704925437</v>
+        <v>92.52003000823836</v>
       </c>
       <c r="I103" t="inlineStr"/>
     </row>
@@ -3869,10 +3869,10 @@
         <v>0.04685964934835764</v>
       </c>
       <c r="G104" t="n">
-        <v>0.06258080725360284</v>
+        <v>0.06283837678680977</v>
       </c>
       <c r="H104" t="n">
-        <v>33.54945699310104</v>
+        <v>34.09911866746004</v>
       </c>
       <c r="I104" t="inlineStr"/>
     </row>
@@ -3902,10 +3902,10 @@
         <v>0.04445404615924812</v>
       </c>
       <c r="G105" t="n">
-        <v>0.07471054560460601</v>
+        <v>0.06694681936450254</v>
       </c>
       <c r="H105" t="n">
-        <v>68.06241964335432</v>
+        <v>50.59780863293831</v>
       </c>
       <c r="I105" t="inlineStr"/>
     </row>
@@ -3935,10 +3935,10 @@
         <v>-0.3176161960821992</v>
       </c>
       <c r="G106" t="n">
-        <v>-0.3268971710478499</v>
+        <v>-0.3116769724666827</v>
       </c>
       <c r="H106" t="n">
-        <v>-2.922072325067689</v>
+        <v>1.869937266668683</v>
       </c>
       <c r="I106" t="inlineStr"/>
     </row>
@@ -3968,10 +3968,10 @@
         <v>-0.3058580179222677</v>
       </c>
       <c r="G107" t="n">
-        <v>-0.3365166826843441</v>
+        <v>-0.2870610957864713</v>
       </c>
       <c r="H107" t="n">
-        <v>-10.02382248153722</v>
+        <v>6.14563654845024</v>
       </c>
       <c r="I107" t="inlineStr"/>
     </row>
@@ -4001,10 +4001,10 @@
         <v>0.219976300390154</v>
       </c>
       <c r="G108" t="n">
-        <v>0.2346160383051926</v>
+        <v>0.2293578905396301</v>
       </c>
       <c r="H108" t="n">
-        <v>6.655143253647451</v>
+        <v>4.264818588564647</v>
       </c>
       <c r="I108" t="inlineStr"/>
     </row>
@@ -4034,10 +4034,10 @@
         <v>0.249283133410306</v>
       </c>
       <c r="G109" t="n">
-        <v>0.2487198193856167</v>
+        <v>0.2685966220825643</v>
       </c>
       <c r="H109" t="n">
-        <v>-0.2259735815187031</v>
+        <v>7.747611484195113</v>
       </c>
       <c r="I109" t="inlineStr"/>
     </row>
@@ -4067,10 +4067,10 @@
         <v>0.003822301047072578</v>
       </c>
       <c r="G110" t="n">
-        <v>-0.005254371475199039</v>
+        <v>0.01060433618944538</v>
       </c>
       <c r="H110" t="n">
-        <v>-237.4661862184627</v>
+        <v>177.4333067660127</v>
       </c>
       <c r="I110" t="inlineStr"/>
     </row>
@@ -4100,10 +4100,10 @@
         <v>0.02162869347624484</v>
       </c>
       <c r="G111" t="n">
-        <v>0.03202498112144656</v>
+        <v>0.02897685635515026</v>
       </c>
       <c r="H111" t="n">
-        <v>48.06710889226915</v>
+        <v>33.97414128123842</v>
       </c>
       <c r="I111" t="inlineStr"/>
     </row>
@@ -4133,10 +4133,10 @@
         <v>0.04266279540653856</v>
       </c>
       <c r="G112" t="n">
-        <v>0.05677919610072461</v>
+        <v>0.05268338831375802</v>
       </c>
       <c r="H112" t="n">
-        <v>33.08831631792827</v>
+        <v>23.48789574553683</v>
       </c>
       <c r="I112" t="inlineStr"/>
     </row>
@@ -4166,14 +4166,14 @@
         <v>0.03369441758879654</v>
       </c>
       <c r="G113" t="n">
-        <v>0.05917062893955257</v>
+        <v>0.04683063920375497</v>
       </c>
       <c r="H113" t="n">
-        <v>75.60959106539632</v>
+        <v>38.98634419289163</v>
       </c>
       <c r="I113" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>